--- a/biology/Médecine/Tarmed/Tarmed.xlsx
+++ b/biology/Médecine/Tarmed/Tarmed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Tarmed (de tarif médical) est la grille tarifaire des prestations médicales ambulatoires en Suisse. C'est une convention passée entre la FMH (fournisseur de soins) et l'association d'assureurs Santésuisse (consommateurs de soins)[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Tarmed (de tarif médical) est la grille tarifaire des prestations médicales ambulatoires en Suisse. C'est une convention passée entre la FMH (fournisseur de soins) et l'association d'assureurs Santésuisse (consommateurs de soins),.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Tarmed vaut pour toutes les prestations ambulatoires, ce qui comprend plus de 4 600 différentes positions, chaque position étant un certain acte médical défini[3]. C'est un système qui fonctionne par points : chaque acte médical vaut un certain nombre de points, et chaque point a un certain coût[4],[5].
-Le système a été introduit en 2004[4], remplaçant la vingtaine de conventions tarifaires qui existaient jusqu'alors. Il est censé maintenir des coûts raisonnables en faisant se rencontrer les intérêts antagonistes des acheteurs et vendeur et ainsi faire jouer la concurrence. Le Tarmed n'a toutefois pas réussi à contenir l'explosion des coûts de la santé[6] ; en plus de dévaluer les généralistes par rapport aux spécialistes, il n'encouragerait pas l'utilisation rationnelle du système médical[7],[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Tarmed vaut pour toutes les prestations ambulatoires, ce qui comprend plus de 4 600 différentes positions, chaque position étant un certain acte médical défini. C'est un système qui fonctionne par points : chaque acte médical vaut un certain nombre de points, et chaque point a un certain coût,.
+Le système a été introduit en 2004, remplaçant la vingtaine de conventions tarifaires qui existaient jusqu'alors. Il est censé maintenir des coûts raisonnables en faisant se rencontrer les intérêts antagonistes des acheteurs et vendeur et ainsi faire jouer la concurrence. Le Tarmed n'a toutefois pas réussi à contenir l'explosion des coûts de la santé ; en plus de dévaluer les généralistes par rapport aux spécialistes, il n'encouragerait pas l'utilisation rationnelle du système médical,.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Évolution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un nouveau système de tarification, Tardoc, est envisagé mais ne réunit pas en juillet 2021 le consensus nécessaire[9]. Ainsi une des deux organisations faîtières des assureurs maladies, Curafutura, la soutien ainsi que la Fédération des médecins suisses (FMH) mais pas l'autre organisation faîtière, Santé-Suisse ainsi que les Hôpitaux de Suisse (H+)[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un nouveau système de tarification, Tardoc, est envisagé mais ne réunit pas en juillet 2021 le consensus nécessaire. Ainsi une des deux organisations faîtières des assureurs maladies, Curafutura, la soutien ainsi que la Fédération des médecins suisses (FMH) mais pas l'autre organisation faîtière, Santé-Suisse ainsi que les Hôpitaux de Suisse (H+).
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2004, santésuisse a reçu le Big Brother Awards dans la catégorie « Business award » pour le système Tarmed ; les raisons évoquées sont le peu de respect pour la vie privée (les caisses maladies ont désormais accès au détail des prestations), qui conduit à des « patients transparents »[10],[11]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2004, santésuisse a reçu le Big Brother Awards dans la catégorie « Business award » pour le système Tarmed ; les raisons évoquées sont le peu de respect pour la vie privée (les caisses maladies ont désormais accès au détail des prestations), qui conduit à des « patients transparents »,
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Autres nomenclatures d'actes au sens large</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Allemagne : Gebührenordnung für Ärzte (de) (GOÄ)
 Australie : medicare benefits schedule book MBS
